--- a/avançado/Aula_Pratica_16.xlsx
+++ b/avançado/Aula_Pratica_16.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\fb.org.br\arquivos\Centro Educacional\860 Desenv Sistemas\Equipe\E-Learning\1.Cursos em Desenvolvimento\Office2016\Cursos\3.Excel2016_Avancado\Anexos\Mod01\Mod01_respostas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Paulo\Documents\GitHub\Excel\avançado\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C0CE8F-E4E4-42AC-BA80-07EF76B51165}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9570" windowHeight="4845" firstSheet="4" activeTab="4"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11310" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1. Trabalhando com Nomes" sheetId="1" r:id="rId1"/>
@@ -22,39 +23,51 @@
     <definedName name="_Doleta">'1. Trabalhando com Nomes'!$B$1:$B$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'3. FILTROS'!$A$7:$G$67</definedName>
     <definedName name="_Real">'1. Trabalhando com Nomes'!$C$2:$C$9</definedName>
-    <definedName name="_xlnm.Extract" localSheetId="2">'3. FILTROS'!$J$5:$P$5</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="2">'3. FILTROS'!$A$1:$C$2</definedName>
+    <definedName name="_xlnm.Extract" localSheetId="2">'3. FILTROS'!$J$9:$P$9</definedName>
+    <definedName name="Cotação">'1. Trabalhando com Nomes'!$E$2</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="2">'3. FILTROS'!$A$1:$G$2</definedName>
     <definedName name="FILTRO">Lista1[#All]</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId6"/>
-    <pivotCache cacheId="3" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" sourceFile="\\fb.org.br\arquivos\Centro Educacional\215 EP\Equipe\EV\17 - Cursos\EV\Infoserver\Office2013\Excel\Avançado\Exemplos\ConexaoExterna.xlsx" keepAlive="1" name="ConexaoExterna" type="5" refreshedVersion="5">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" sourceFile="\\fb.org.br\arquivos\Centro Educacional\215 EP\Equipe\EV\17 - Cursos\EV\Infoserver\Office2013\Excel\Avançado\Exemplos\ConexaoExterna.xlsx" keepAlive="1" name="ConexaoExterna" type="5" refreshedVersion="5">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=\\fb.org.br\arquivos\Centro Educacional\215 EP\Equipe\EV\17 - Cursos\EV\Infoserver\Office2013\Excel\Avançado\Exemplos\ConexaoExterna.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False;Jet OLEDB:Limited DB Caching=False;Jet OLEDB:Bypass ChoiceField Validation=False" command="TblProdutos$" commandType="3"/>
   </connection>
-  <connection id="2" sourceFile="\\fb.org.br\arquivos\Centro Educacional\215 EP\Equipe\EV\17 - Cursos\EV\Infoserver\Office2013\Excel\Avançado\Exemplos\ConexaoExterna.xlsx" keepAlive="1" name="ConexaoExterna1" type="5" refreshedVersion="5">
+  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" sourceFile="\\fb.org.br\arquivos\Centro Educacional\215 EP\Equipe\EV\17 - Cursos\EV\Infoserver\Office2013\Excel\Avançado\Exemplos\ConexaoExterna.xlsx" keepAlive="1" name="ConexaoExterna1" type="5" refreshedVersion="5">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=\\fb.org.br\arquivos\Centro Educacional\215 EP\Equipe\EV\17 - Cursos\EV\Infoserver\Office2013\Excel\Avançado\Exemplos\ConexaoExterna.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False;Jet OLEDB:Limited DB Caching=False;Jet OLEDB:Bypass ChoiceField Validation=False" command="TblProdutos$" commandType="3"/>
   </connection>
-  <connection id="3" sourceFile="\\fb.org.br\arquivos\Centro Educacional\860 Desenv Sistemas\Equipe\E-Learning\1.Cursos em Desenvolvimento\Office2016\Conteudo\Excel_2016_Avancado\Exemplos\ConexaoExterna.xlsx" keepAlive="1" name="ConexaoExterna2" type="5" refreshedVersion="6">
+  <connection id="3" xr16:uid="{00000000-0015-0000-FFFF-FFFF02000000}" sourceFile="\\fb.org.br\arquivos\Centro Educacional\860 Desenv Sistemas\Equipe\E-Learning\1.Cursos em Desenvolvimento\Office2016\Conteudo\Excel_2016_Avancado\Exemplos\ConexaoExterna.xlsx" keepAlive="1" name="ConexaoExterna2" type="5" refreshedVersion="6">
     <dbPr connection="Provider=Microsoft.ACE.OLEDB.12.0;User ID=Admin;Data Source=\\fb.org.br\arquivos\Centro Educacional\860 Desenv Sistemas\Equipe\E-Learning\1.Cursos em Desenvolvimento\Office2016\Conteudo\Excel_2016_Avancado\Exemplos\ConexaoExterna.xlsx;Mode=Share Deny Write;Extended Properties=&quot;HDR=YES;&quot;;Jet OLEDB:System database=&quot;&quot;;Jet OLEDB:Registry Path=&quot;&quot;;Jet OLEDB:Engine Type=37;Jet OLEDB:Database Locking Mode=0;Jet OLEDB:Global Partial Bulk Ops=2;Jet OLEDB:Global Bulk Transactions=1;Jet OLEDB:New Database Password=&quot;&quot;;Jet OLEDB:Create System Database=False;Jet OLEDB:Encrypt Database=False;Jet OLEDB:Don't Copy Locale on Compact=False;Jet OLEDB:Compact Without Replica Repair=False;Jet OLEDB:SFP=False;Jet OLEDB:Support Complex Data=False;Jet OLEDB:Bypass UserInfo Validation=False;Jet OLEDB:Limited DB Caching=False;Jet OLEDB:Bypass ChoiceField Validation=False" command="TblProdutos$" commandType="3"/>
   </connection>
 </connections>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="217">
   <si>
     <t>Produto</t>
   </si>
@@ -680,24 +693,6 @@
     <t>Fundação Bradesco</t>
   </si>
   <si>
-    <t>Austrália Total</t>
-  </si>
-  <si>
-    <t>Bélgica Total</t>
-  </si>
-  <si>
-    <t>Brasil Total</t>
-  </si>
-  <si>
-    <t>França Total</t>
-  </si>
-  <si>
-    <t>Itália Total</t>
-  </si>
-  <si>
-    <t>Suécia Total</t>
-  </si>
-  <si>
     <t>Rótulos de Linha</t>
   </si>
   <si>
@@ -711,17 +706,29 @@
   </si>
   <si>
     <t>Soma de UnidadesEmEstoque</t>
+  </si>
+  <si>
+    <t>Flauta Total</t>
+  </si>
+  <si>
+    <t>Trompete Total</t>
+  </si>
+  <si>
+    <t>Saxofone Total</t>
+  </si>
+  <si>
+    <t>Violino Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
     <numFmt numFmtId="165" formatCode="_(&quot;R$ &quot;* #,##0.00_);_(&quot;R$ &quot;* \(#,##0.00\);_(&quot;R$ &quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="168" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -1043,7 +1050,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1072,7 +1079,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1082,9 +1089,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1092,7 +1099,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1101,36 +1107,31 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
-    <cellStyle name="Moeda 3" xfId="3"/>
-    <cellStyle name="Moeda 9" xfId="5"/>
+    <cellStyle name="Moeda 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Moeda 9" xfId="5" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 4" xfId="2"/>
-    <cellStyle name="Normal 9" xfId="4"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Normal 9" xfId="4" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -1275,7 +1276,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="2" name="Conector de seta reta 1"/>
+        <xdr:cNvPr id="2" name="Conector de seta reta 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1317,7 +1324,13 @@
     <xdr:ext cx="3514808" cy="374141"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Retângulo 2"/>
+        <xdr:cNvPr id="3" name="Retângulo 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1368,7 +1381,13 @@
     <xdr:ext cx="5480410" cy="374141"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Retângulo 3"/>
+        <xdr:cNvPr id="4" name="Retângulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1453,7 +1472,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="Conector de seta reta 4"/>
+        <xdr:cNvPr id="5" name="Conector de seta reta 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1489,7 +1514,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vitor Yudi Mori Teixeira" refreshedDate="43389.422987731479" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="77">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vitor Yudi Mori Teixeira" refreshedDate="43389.422987731479" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="77" xr:uid="{00000000-000A-0000-FFFF-FFFF02000000}">
   <cacheSource type="external" connectionId="3"/>
   <cacheFields count="5">
     <cacheField name="NomeDoProduto" numFmtId="0">
@@ -1604,7 +1629,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Vitor Yudi Mori Teixeira" refreshedDate="43389.422987962964" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="105">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Vitor Yudi Mori Teixeira" refreshedDate="43389.422987962964" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="105" xr:uid="{00000000-000A-0000-FFFF-FFFF03000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Atendimentos"/>
   </cacheSource>
@@ -3148,7 +3173,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000000000000}" name="Tabela dinâmica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="M3:O6" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField numFmtId="14" showAll="0"/>
@@ -3216,12 +3241,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0500-000001000000}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A1:B79" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="5">
     <pivotField axis="axisRow" showAll="0">
@@ -3561,36 +3589,39 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Lista1" displayName="Lista1" ref="A7:G67" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Lista1" displayName="Lista1" ref="A7:G67" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <tableColumns count="7">
-    <tableColumn id="1" name="Região" dataDxfId="7"/>
-    <tableColumn id="2" name="UF" dataDxfId="6"/>
-    <tableColumn id="8" name="Produto" dataDxfId="5"/>
-    <tableColumn id="3" name="Cidade" dataDxfId="4"/>
-    <tableColumn id="4" name="Jan" dataDxfId="3" dataCellStyle="Moeda"/>
-    <tableColumn id="5" name="Fev" dataDxfId="2" dataCellStyle="Moeda"/>
-    <tableColumn id="6" name="Mar" dataDxfId="1" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Região" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="UF" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Produto" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Cidade" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Jan" dataDxfId="3" dataCellStyle="Moeda"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Fev" dataDxfId="2" dataCellStyle="Moeda"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Mar" dataDxfId="1" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Atendimentos" displayName="Atendimentos" ref="A1:G106" totalsRowShown="0" headerRowCellStyle="Normal 4" dataCellStyle="Normal 4">
-  <autoFilter ref="A1:G106"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Atendimentos" displayName="Atendimentos" ref="A1:G106" totalsRowShown="0" headerRowCellStyle="Normal 4" dataCellStyle="Normal 4">
+  <autoFilter ref="A1:G106" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Data" dataDxfId="0" dataCellStyle="Normal 4"/>
-    <tableColumn id="2" name="Supervisor" dataCellStyle="Normal 4"/>
-    <tableColumn id="3" name="Cliente" dataCellStyle="Normal 4"/>
-    <tableColumn id="4" name="Cidade" dataCellStyle="Normal 4"/>
-    <tableColumn id="5" name="Produto" dataCellStyle="Normal 4"/>
-    <tableColumn id="6" name="Previsto" dataCellStyle="Moeda"/>
-    <tableColumn id="7" name="Realizado" dataCellStyle="Moeda"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Data" dataDxfId="0" dataCellStyle="Normal 4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Supervisor" dataCellStyle="Normal 4"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Cliente" dataCellStyle="Normal 4"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Cidade" dataCellStyle="Normal 4"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Produto" dataCellStyle="Normal 4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Previsto" dataCellStyle="Moeda"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Realizado" dataCellStyle="Moeda"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight19" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3858,11 +3889,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3895,9 +3926,9 @@
       <c r="B2" s="1">
         <v>700</v>
       </c>
-      <c r="C2" s="26" t="e">
-        <f t="shared" ref="C2:C9" si="0">B2*Cotação</f>
-        <v>#NAME?</v>
+      <c r="C2" s="25">
+        <f>B2*_xlfn.SINGLE(Cotação)</f>
+        <v>2128</v>
       </c>
       <c r="E2" s="3">
         <v>3.04</v>
@@ -3910,9 +3941,9 @@
       <c r="B3" s="1">
         <v>780</v>
       </c>
-      <c r="C3" s="26" t="e">
-        <f t="shared" si="0"/>
-        <v>#NAME?</v>
+      <c r="C3" s="25">
+        <f t="shared" ref="C2:C9" si="0">B3*_xlfn.SINGLE(Cotação)</f>
+        <v>2371.1999999999998</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3922,14 +3953,14 @@
       <c r="B4" s="1">
         <v>590</v>
       </c>
-      <c r="C4" s="26" t="e">
+      <c r="C4" s="25">
         <f t="shared" si="0"/>
-        <v>#NAME?</v>
+        <v>1793.6</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="27">
         <f>SUM(_Doleta)</f>
         <v>4893</v>
       </c>
@@ -3941,16 +3972,16 @@
       <c r="B5" s="1">
         <v>680</v>
       </c>
-      <c r="C5" s="26" t="e">
+      <c r="C5" s="25">
         <f t="shared" si="0"/>
-        <v>#NAME?</v>
+        <v>2067.1999999999998</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="29" t="e">
+      <c r="F5" s="28">
         <f>SUM(_Real)</f>
-        <v>#NAME?</v>
+        <v>14874.72</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3960,9 +3991,9 @@
       <c r="B6" s="1">
         <v>900</v>
       </c>
-      <c r="C6" s="26" t="e">
+      <c r="C6" s="25">
         <f t="shared" si="0"/>
-        <v>#NAME?</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3972,9 +4003,9 @@
       <c r="B7" s="1">
         <v>400</v>
       </c>
-      <c r="C7" s="26" t="e">
+      <c r="C7" s="25">
         <f t="shared" si="0"/>
-        <v>#NAME?</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3984,9 +4015,9 @@
       <c r="B8" s="1">
         <v>753</v>
       </c>
-      <c r="C8" s="26" t="e">
+      <c r="C8" s="25">
         <f t="shared" si="0"/>
-        <v>#NAME?</v>
+        <v>2289.12</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3996,9 +4027,9 @@
       <c r="B9" s="2">
         <v>90</v>
       </c>
-      <c r="C9" s="27" t="e">
+      <c r="C9" s="26">
         <f t="shared" si="0"/>
-        <v>#NAME?</v>
+        <v>273.60000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -4007,10 +4038,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4037,7 +4070,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A2" s="10" t="s">
         <v>18</v>
       </c>
@@ -4051,553 +4084,647 @@
         <v>700</v>
       </c>
       <c r="E2" s="12">
-        <f t="shared" ref="E2:E31" si="0">D2*C2</f>
+        <f t="shared" ref="E2:E39" si="0">D2*C2</f>
         <v>1400</v>
       </c>
     </row>
-    <row r="3" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10"/>
+      <c r="B3" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12">
+        <f>SUBTOTAL(9,E2:E2)</f>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C4" s="10">
         <v>4</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D4" s="11">
         <v>1300</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E4" s="12">
         <f t="shared" si="0"/>
         <v>5200</v>
       </c>
     </row>
-    <row r="4" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+    <row r="5" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B5" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C5" s="10">
         <v>7</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D5" s="11">
         <v>1300</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E5" s="12">
         <f t="shared" si="0"/>
         <v>9100</v>
       </c>
     </row>
-    <row r="5" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A5" s="10" t="s">
+    <row r="6" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C6" s="10">
         <v>2</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D6" s="11">
         <v>1300</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E6" s="12">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
     </row>
-    <row r="6" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12">
-        <f>SUBTOTAL(9,E2:E5)</f>
-        <v>18300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
+    <row r="7" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10"/>
+      <c r="B7" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12">
+        <f>SUBTOTAL(9,E4:E6)</f>
+        <v>16900</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C8" s="10">
         <v>4</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D8" s="11">
         <v>2500</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E8" s="12">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
+    <row r="9" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B9" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C9" s="10">
         <v>6</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D9" s="11">
         <v>2500</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E9" s="12">
         <f t="shared" si="0"/>
         <v>15000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
+    <row r="10" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10"/>
+      <c r="B10" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="12">
+        <f>SUBTOTAL(9,E8:E9)</f>
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B11" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C11" s="10">
         <v>5</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D11" s="11">
         <v>500</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E11" s="12">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+    <row r="12" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C12" s="10">
         <v>1</v>
       </c>
-      <c r="D10" s="11">
+      <c r="D12" s="11">
         <v>500</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E12" s="12">
         <f t="shared" si="0"/>
         <v>500</v>
       </c>
     </row>
-    <row r="11" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>209</v>
-      </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="12">
-        <f>SUBTOTAL(9,E7:E10)</f>
-        <v>28000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+    <row r="13" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="10"/>
+      <c r="B13" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="12">
+        <f>SUBTOTAL(9,E11:E12)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B14" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C14" s="10">
         <v>2</v>
       </c>
-      <c r="D12" s="11">
+      <c r="D14" s="11">
         <v>1300</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E14" s="12">
         <f t="shared" si="0"/>
         <v>2600</v>
       </c>
     </row>
-    <row r="13" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A13" s="10" t="s">
+    <row r="15" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B15" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C15" s="10">
         <v>3</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D15" s="11">
         <v>1300</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E15" s="12">
         <f t="shared" si="0"/>
         <v>3900</v>
       </c>
     </row>
-    <row r="14" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A14" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="10">
-        <v>4</v>
-      </c>
-      <c r="D14" s="11">
-        <v>500</v>
-      </c>
-      <c r="E14" s="12">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="10">
-        <v>6</v>
-      </c>
-      <c r="D15" s="11">
-        <v>500</v>
-      </c>
-      <c r="E15" s="12">
-        <f t="shared" si="0"/>
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>210</v>
-      </c>
-      <c r="B16" s="10"/>
+    <row r="16" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="10"/>
+      <c r="B16" s="33" t="s">
+        <v>214</v>
+      </c>
       <c r="C16" s="10"/>
       <c r="D16" s="11"/>
       <c r="E16" s="12">
-        <f>SUBTOTAL(9,E12:E15)</f>
-        <v>11500</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <f>SUBTOTAL(9,E14:E15)</f>
+        <v>6500</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C17" s="10">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="11">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E17" s="12">
         <f t="shared" si="0"/>
-        <v>1400</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C18" s="10">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D18" s="11">
-        <v>700</v>
+        <v>500</v>
       </c>
       <c r="E18" s="12">
         <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+      <c r="B19" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C19" s="10"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12">
+        <f>SUBTOTAL(9,E17:E18)</f>
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="10">
+        <v>2</v>
+      </c>
+      <c r="D20" s="11">
+        <v>700</v>
+      </c>
+      <c r="E20" s="12">
+        <f t="shared" si="0"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="10">
+        <v>4</v>
+      </c>
+      <c r="D21" s="11">
+        <v>700</v>
+      </c>
+      <c r="E21" s="12">
+        <f t="shared" si="0"/>
         <v>2800</v>
       </c>
     </row>
-    <row r="19" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A19" s="10" t="s">
+    <row r="22" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10"/>
+      <c r="B22" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="12">
+        <f>SUBTOTAL(9,E20:E21)</f>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B23" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C23" s="10">
         <v>4</v>
       </c>
-      <c r="D19" s="11">
+      <c r="D23" s="11">
         <v>2500</v>
       </c>
-      <c r="E19" s="12">
+      <c r="E23" s="12">
         <f t="shared" si="0"/>
         <v>10000</v>
       </c>
     </row>
-    <row r="20" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="10">
-        <v>3</v>
-      </c>
-      <c r="D20" s="11">
-        <v>1300</v>
-      </c>
-      <c r="E20" s="12">
-        <f t="shared" si="0"/>
-        <v>3900</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="10">
-        <v>1</v>
-      </c>
-      <c r="D21" s="11">
-        <v>500</v>
-      </c>
-      <c r="E21" s="12">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C22" s="10">
-        <v>2</v>
-      </c>
-      <c r="D22" s="11">
-        <v>500</v>
-      </c>
-      <c r="E22" s="12">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="10">
-        <v>4</v>
-      </c>
-      <c r="D23" s="11">
-        <v>500</v>
-      </c>
-      <c r="E23" s="12">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
-        <v>211</v>
-      </c>
-      <c r="B24" s="10"/>
+    <row r="24" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10"/>
+      <c r="B24" s="33" t="s">
+        <v>215</v>
+      </c>
       <c r="C24" s="10"/>
       <c r="D24" s="11"/>
       <c r="E24" s="12">
-        <f>SUBTOTAL(9,E17:E23)</f>
-        <v>21600</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <f>SUBTOTAL(9,E23:E23)</f>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C25" s="10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D25" s="11">
-        <v>700</v>
+        <v>1300</v>
       </c>
       <c r="E25" s="12">
         <f t="shared" si="0"/>
-        <v>4200</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="10">
-        <v>3</v>
-      </c>
-      <c r="D26" s="11">
-        <v>500</v>
-      </c>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="10"/>
+      <c r="B26" s="33" t="s">
+        <v>214</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="12">
-        <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <f>SUBTOTAL(9,E25:E25)</f>
+        <v>3900</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C27" s="10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D27" s="11">
         <v>500</v>
       </c>
       <c r="E27" s="12">
         <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="B28" s="10"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="11"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="10">
+        <v>2</v>
+      </c>
+      <c r="D28" s="11">
+        <v>500</v>
+      </c>
       <c r="E28" s="12">
-        <f>SUBTOTAL(9,E25:E27)</f>
-        <v>7200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C29" s="10">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D29" s="11">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="E29" s="12">
         <f t="shared" si="0"/>
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="10">
-        <v>1</v>
-      </c>
-      <c r="D30" s="11">
-        <v>500</v>
-      </c>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="10"/>
+      <c r="B30" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C30" s="10"/>
+      <c r="D30" s="11"/>
       <c r="E30" s="12">
-        <f t="shared" si="0"/>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" hidden="1" outlineLevel="2" x14ac:dyDescent="0.25">
+        <f>SUBTOTAL(9,E27:E29)</f>
+        <v>3500</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C31" s="10">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D31" s="11">
-        <v>500</v>
+        <v>700</v>
       </c>
       <c r="E31" s="12">
         <f t="shared" si="0"/>
-        <v>1500</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" outlineLevel="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+      <c r="B32" s="33" t="s">
         <v>213</v>
       </c>
-      <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="11"/>
       <c r="E32" s="12">
-        <f>SUBTOTAL(9,E29:E31)</f>
-        <v>19500</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
+        <f>SUBTOTAL(9,E31:E31)</f>
+        <v>4200</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="10">
+        <v>3</v>
+      </c>
+      <c r="D33" s="11">
+        <v>500</v>
+      </c>
+      <c r="E33" s="12">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="10">
+        <v>3</v>
+      </c>
+      <c r="D34" s="11">
+        <v>500</v>
+      </c>
+      <c r="E34" s="12">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+      <c r="B35" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="11"/>
+      <c r="E35" s="12">
+        <f>SUBTOTAL(9,E33:E34)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="10">
+        <v>7</v>
+      </c>
+      <c r="D36" s="11">
+        <v>2500</v>
+      </c>
+      <c r="E36" s="12">
+        <f t="shared" si="0"/>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+      <c r="B37" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="12">
+        <f>SUBTOTAL(9,E36:E36)</f>
+        <v>17500</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="10">
+        <v>1</v>
+      </c>
+      <c r="D38" s="11">
+        <v>500</v>
+      </c>
+      <c r="E38" s="12">
+        <f t="shared" si="0"/>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" outlineLevel="2" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="10">
+        <v>3</v>
+      </c>
+      <c r="D39" s="11">
+        <v>500</v>
+      </c>
+      <c r="E39" s="12">
+        <f t="shared" si="0"/>
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10"/>
+      <c r="B40" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12">
+        <f>SUBTOTAL(9,E38:E39)</f>
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="10"/>
+      <c r="B41" s="33" t="s">
         <v>206</v>
       </c>
-      <c r="B33" s="10"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="11"/>
-      <c r="E33" s="12">
-        <f>SUBTOTAL(9,E2:E31)</f>
+      <c r="C41" s="10"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="12">
+        <f>SUBTOTAL(9,E2:E39)</f>
         <v>106100</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E26">
-    <sortCondition ref="A7"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E33">
+    <sortCondition ref="A8"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:P67"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1:P1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" style="32" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" style="33" customWidth="1"/>
-    <col min="4" max="4" width="18.85546875" style="32" bestFit="1" customWidth="1"/>
-    <col min="5" max="8" width="13.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="32" customWidth="1"/>
-    <col min="10" max="13" width="9.140625" style="32"/>
-    <col min="14" max="16" width="13.28515625" style="32" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="32"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" customWidth="1"/>
+    <col min="14" max="16" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -4607,7 +4734,7 @@
       <c r="B1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="29" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="18" t="s">
@@ -4628,7 +4755,7 @@
         <v>74</v>
       </c>
       <c r="B2" s="15"/>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>23</v>
       </c>
       <c r="D2" s="15"/>
@@ -4637,39 +4764,39 @@
       <c r="G2" s="16"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J5" s="32" t="s">
+      <c r="J5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" s="32" t="s">
+      <c r="K5" t="s">
         <v>29</v>
       </c>
-      <c r="L5" s="33" t="s">
+      <c r="L5" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="M5" s="32" t="s">
+      <c r="M5" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="32" t="s">
+      <c r="N5" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="32" t="s">
+      <c r="O5" t="s">
         <v>32</v>
       </c>
-      <c r="P5" s="32" t="s">
+      <c r="P5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J6" s="32" t="s">
+      <c r="J6" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="32" t="s">
+      <c r="K6" t="s">
         <v>80</v>
       </c>
-      <c r="L6" s="34" t="s">
+      <c r="L6" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="M6" s="32" t="s">
+      <c r="M6" t="s">
         <v>83</v>
       </c>
       <c r="N6" s="13">
@@ -4683,37 +4810,37 @@
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="32" t="s">
+      <c r="E7" t="s">
         <v>31</v>
       </c>
-      <c r="F7" s="32" t="s">
+      <c r="F7" t="s">
         <v>32</v>
       </c>
-      <c r="G7" s="32" t="s">
+      <c r="G7" t="s">
         <v>33</v>
       </c>
-      <c r="J7" s="32" t="s">
+      <c r="J7" t="s">
         <v>74</v>
       </c>
-      <c r="K7" s="32" t="s">
+      <c r="K7" t="s">
         <v>80</v>
       </c>
-      <c r="L7" s="34" t="s">
+      <c r="L7" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="32" t="s">
+      <c r="M7" t="s">
         <v>84</v>
       </c>
       <c r="N7" s="13">
@@ -4727,16 +4854,16 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
+      <c r="A8" t="s">
         <v>34</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" t="s">
         <v>36</v>
       </c>
       <c r="E8" s="13">
@@ -4751,16 +4878,16 @@
       <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="32" t="s">
+      <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" t="s">
         <v>39</v>
       </c>
       <c r="E9" s="13">
@@ -4773,18 +4900,39 @@
         <v>33958</v>
       </c>
       <c r="H9" s="13"/>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" t="s">
+        <v>29</v>
+      </c>
+      <c r="L9" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="32" t="s">
+      <c r="D10" t="s">
         <v>40</v>
       </c>
       <c r="E10" s="13">
@@ -4797,18 +4945,39 @@
         <v>39639</v>
       </c>
       <c r="H10" s="13"/>
+      <c r="J10" t="s">
+        <v>74</v>
+      </c>
+      <c r="K10" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="M10" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="13">
+        <v>33760</v>
+      </c>
+      <c r="O10" s="13">
+        <v>26746</v>
+      </c>
+      <c r="P10" s="13">
+        <v>31309</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C11" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D11" s="32" t="s">
+      <c r="D11" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="13">
@@ -4821,18 +4990,39 @@
         <v>30998</v>
       </c>
       <c r="H11" s="13"/>
+      <c r="J11" t="s">
+        <v>74</v>
+      </c>
+      <c r="K11" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="M11" t="s">
+        <v>84</v>
+      </c>
+      <c r="N11" s="13">
+        <v>27905</v>
+      </c>
+      <c r="O11" s="13">
+        <v>40944</v>
+      </c>
+      <c r="P11" s="13">
+        <v>38350</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="C12" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" t="s">
         <v>43</v>
       </c>
       <c r="E12" s="13">
@@ -4847,16 +5037,16 @@
       <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="34" t="s">
+      <c r="C13" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="32" t="s">
+      <c r="D13" t="s">
         <v>44</v>
       </c>
       <c r="E13" s="13">
@@ -4871,16 +5061,16 @@
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" t="s">
         <v>45</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="32" t="s">
+      <c r="D14" t="s">
         <v>47</v>
       </c>
       <c r="E14" s="13">
@@ -4895,16 +5085,16 @@
       <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="32" t="s">
+      <c r="D15" t="s">
         <v>48</v>
       </c>
       <c r="E15" s="13">
@@ -4919,16 +5109,16 @@
       <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="32" t="s">
+      <c r="A16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" t="s">
         <v>49</v>
       </c>
-      <c r="C16" s="34" t="s">
+      <c r="C16" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D16" s="32" t="s">
+      <c r="D16" t="s">
         <v>50</v>
       </c>
       <c r="E16" s="13">
@@ -4943,16 +5133,16 @@
       <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="32" t="s">
+      <c r="A17" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="34" t="s">
+      <c r="C17" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="32" t="s">
+      <c r="D17" t="s">
         <v>51</v>
       </c>
       <c r="E17" s="13">
@@ -4967,16 +5157,16 @@
       <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
+      <c r="A18" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="B18" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C18" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D18" s="32" t="s">
+      <c r="D18" t="s">
         <v>52</v>
       </c>
       <c r="E18" s="13">
@@ -4991,16 +5181,16 @@
       <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="32" t="s">
+      <c r="A19" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="34" t="s">
+      <c r="C19" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" t="s">
         <v>54</v>
       </c>
       <c r="E19" s="13">
@@ -5015,16 +5205,16 @@
       <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" t="s">
         <v>53</v>
       </c>
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" t="s">
         <v>55</v>
       </c>
       <c r="E20" s="13">
@@ -5039,16 +5229,16 @@
       <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="32" t="s">
+      <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" t="s">
         <v>56</v>
       </c>
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" t="s">
         <v>57</v>
       </c>
       <c r="E21" s="13">
@@ -5063,16 +5253,16 @@
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="A22" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="32" t="s">
+      <c r="B22" t="s">
         <v>56</v>
       </c>
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" t="s">
         <v>58</v>
       </c>
       <c r="E22" s="13">
@@ -5087,16 +5277,16 @@
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="A23" t="s">
         <v>59</v>
       </c>
-      <c r="B23" s="32" t="s">
+      <c r="B23" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" t="s">
         <v>61</v>
       </c>
       <c r="E23" s="13">
@@ -5111,16 +5301,16 @@
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="32" t="s">
+      <c r="A24" t="s">
         <v>59</v>
       </c>
-      <c r="B24" s="32" t="s">
+      <c r="B24" t="s">
         <v>60</v>
       </c>
-      <c r="C24" s="34" t="s">
+      <c r="C24" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" t="s">
         <v>62</v>
       </c>
       <c r="E24" s="13">
@@ -5135,16 +5325,16 @@
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="32" t="s">
+      <c r="B25" t="s">
         <v>63</v>
       </c>
-      <c r="C25" s="34" t="s">
+      <c r="C25" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="32" t="s">
+      <c r="D25" t="s">
         <v>64</v>
       </c>
       <c r="E25" s="13">
@@ -5159,16 +5349,16 @@
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" t="s">
         <v>59</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="34" t="s">
+      <c r="C26" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D26" s="32" t="s">
+      <c r="D26" t="s">
         <v>65</v>
       </c>
       <c r="E26" s="13">
@@ -5183,16 +5373,16 @@
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+      <c r="A27" t="s">
         <v>59</v>
       </c>
-      <c r="B27" s="32" t="s">
+      <c r="B27" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="34" t="s">
+      <c r="C27" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D27" s="32" t="s">
+      <c r="D27" t="s">
         <v>66</v>
       </c>
       <c r="E27" s="13">
@@ -5207,16 +5397,16 @@
       <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="32" t="s">
+      <c r="A28" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="34" t="s">
+      <c r="C28" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="32" t="s">
+      <c r="D28" t="s">
         <v>68</v>
       </c>
       <c r="E28" s="13">
@@ -5231,16 +5421,16 @@
       <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+      <c r="A29" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="32" t="s">
+      <c r="B29" t="s">
         <v>67</v>
       </c>
-      <c r="C29" s="34" t="s">
+      <c r="C29" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="32" t="s">
+      <c r="D29" t="s">
         <v>69</v>
       </c>
       <c r="E29" s="13">
@@ -5255,16 +5445,16 @@
       <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="32" t="s">
+      <c r="A30" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="32" t="s">
+      <c r="B30" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="34" t="s">
+      <c r="C30" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="32" t="s">
+      <c r="D30" t="s">
         <v>70</v>
       </c>
       <c r="E30" s="13">
@@ -5279,16 +5469,16 @@
       <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="32" t="s">
+      <c r="A31" t="s">
         <v>59</v>
       </c>
-      <c r="B31" s="32" t="s">
+      <c r="B31" t="s">
         <v>71</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D31" s="32" t="s">
+      <c r="D31" t="s">
         <v>72</v>
       </c>
       <c r="E31" s="13">
@@ -5303,16 +5493,16 @@
       <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="32" t="s">
+      <c r="A32" t="s">
         <v>59</v>
       </c>
-      <c r="B32" s="32" t="s">
+      <c r="B32" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="34" t="s">
+      <c r="C32" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D32" s="32" t="s">
+      <c r="D32" t="s">
         <v>73</v>
       </c>
       <c r="E32" s="13">
@@ -5327,16 +5517,16 @@
       <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="A33" t="s">
         <v>74</v>
       </c>
-      <c r="B33" s="32" t="s">
+      <c r="B33" t="s">
         <v>75</v>
       </c>
-      <c r="C33" s="34" t="s">
+      <c r="C33" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D33" s="32" t="s">
+      <c r="D33" t="s">
         <v>76</v>
       </c>
       <c r="E33" s="13">
@@ -5351,16 +5541,16 @@
       <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
+      <c r="A34" t="s">
         <v>74</v>
       </c>
-      <c r="B34" s="32" t="s">
+      <c r="B34" t="s">
         <v>75</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D34" s="32" t="s">
+      <c r="D34" t="s">
         <v>77</v>
       </c>
       <c r="E34" s="13">
@@ -5375,16 +5565,16 @@
       <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="A35" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="32" t="s">
+      <c r="B35" t="s">
         <v>75</v>
       </c>
-      <c r="C35" s="34" t="s">
+      <c r="C35" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="32" t="s">
+      <c r="D35" t="s">
         <v>78</v>
       </c>
       <c r="E35" s="13">
@@ -5399,16 +5589,16 @@
       <c r="H35" s="13"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A36" s="32" t="s">
+      <c r="A36" t="s">
         <v>74</v>
       </c>
-      <c r="B36" s="32" t="s">
+      <c r="B36" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="34" t="s">
+      <c r="C36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="32" t="s">
+      <c r="D36" t="s">
         <v>79</v>
       </c>
       <c r="E36" s="13">
@@ -5423,16 +5613,16 @@
       <c r="H36" s="13"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="32" t="s">
+      <c r="A37" t="s">
         <v>74</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B37" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="32" t="s">
+      <c r="D37" t="s">
         <v>81</v>
       </c>
       <c r="E37" s="13">
@@ -5447,16 +5637,16 @@
       <c r="H37" s="13"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="32" t="s">
+      <c r="A38" t="s">
         <v>74</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" t="s">
         <v>80</v>
       </c>
-      <c r="C38" s="34" t="s">
+      <c r="C38" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D38" s="32" t="s">
+      <c r="D38" t="s">
         <v>82</v>
       </c>
       <c r="E38" s="13">
@@ -5471,16 +5661,16 @@
       <c r="H38" s="13"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="32" t="s">
+      <c r="A39" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" t="s">
         <v>80</v>
       </c>
-      <c r="C39" s="34" t="s">
+      <c r="C39" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D39" s="32" t="s">
+      <c r="D39" t="s">
         <v>83</v>
       </c>
       <c r="E39" s="13">
@@ -5495,16 +5685,16 @@
       <c r="H39" s="13"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
+      <c r="A40" t="s">
         <v>74</v>
       </c>
-      <c r="B40" s="32" t="s">
+      <c r="B40" t="s">
         <v>80</v>
       </c>
-      <c r="C40" s="34" t="s">
+      <c r="C40" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D40" s="32" t="s">
+      <c r="D40" t="s">
         <v>84</v>
       </c>
       <c r="E40" s="13">
@@ -5519,16 +5709,16 @@
       <c r="H40" s="13"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="32" t="s">
+      <c r="A41" t="s">
         <v>74</v>
       </c>
-      <c r="B41" s="32" t="s">
+      <c r="B41" t="s">
         <v>80</v>
       </c>
-      <c r="C41" s="34" t="s">
+      <c r="C41" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="32" t="s">
+      <c r="D41" t="s">
         <v>85</v>
       </c>
       <c r="E41" s="13">
@@ -5543,16 +5733,16 @@
       <c r="H41" s="13"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
+      <c r="A42" t="s">
         <v>37</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" t="s">
         <v>86</v>
       </c>
-      <c r="C42" s="34" t="s">
+      <c r="C42" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D42" s="32" t="s">
+      <c r="D42" t="s">
         <v>87</v>
       </c>
       <c r="E42" s="13">
@@ -5567,16 +5757,16 @@
       <c r="H42" s="13"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
+      <c r="A43" t="s">
         <v>37</v>
       </c>
-      <c r="B43" s="32" t="s">
+      <c r="B43" t="s">
         <v>86</v>
       </c>
-      <c r="C43" s="34" t="s">
+      <c r="C43" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D43" s="32" t="s">
+      <c r="D43" t="s">
         <v>87</v>
       </c>
       <c r="E43" s="13">
@@ -5591,16 +5781,16 @@
       <c r="H43" s="13"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="32" t="s">
+      <c r="A44" t="s">
         <v>37</v>
       </c>
-      <c r="B44" s="32" t="s">
+      <c r="B44" t="s">
         <v>86</v>
       </c>
-      <c r="C44" s="34" t="s">
+      <c r="C44" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D44" s="32" t="s">
+      <c r="D44" t="s">
         <v>88</v>
       </c>
       <c r="E44" s="13">
@@ -5615,16 +5805,16 @@
       <c r="H44" s="13"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="32" t="s">
+      <c r="A45" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="32" t="s">
+      <c r="B45" t="s">
         <v>86</v>
       </c>
-      <c r="C45" s="34" t="s">
+      <c r="C45" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D45" s="32" t="s">
+      <c r="D45" t="s">
         <v>88</v>
       </c>
       <c r="E45" s="13">
@@ -5639,16 +5829,16 @@
       <c r="H45" s="13"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="32" t="s">
+      <c r="A46" t="s">
         <v>37</v>
       </c>
-      <c r="B46" s="32" t="s">
+      <c r="B46" t="s">
         <v>86</v>
       </c>
-      <c r="C46" s="34" t="s">
+      <c r="C46" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D46" s="32" t="s">
+      <c r="D46" t="s">
         <v>89</v>
       </c>
       <c r="E46" s="13">
@@ -5663,16 +5853,16 @@
       <c r="H46" s="13"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="32" t="s">
+      <c r="A47" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" t="s">
         <v>86</v>
       </c>
-      <c r="C47" s="34" t="s">
+      <c r="C47" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D47" s="32" t="s">
+      <c r="D47" t="s">
         <v>89</v>
       </c>
       <c r="E47" s="13">
@@ -5687,16 +5877,16 @@
       <c r="H47" s="13"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="32" t="s">
+      <c r="A48" t="s">
         <v>37</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" t="s">
         <v>86</v>
       </c>
-      <c r="C48" s="34" t="s">
+      <c r="C48" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D48" s="32" t="s">
+      <c r="D48" t="s">
         <v>90</v>
       </c>
       <c r="E48" s="13">
@@ -5711,16 +5901,16 @@
       <c r="H48" s="13"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
+      <c r="A49" t="s">
         <v>37</v>
       </c>
-      <c r="B49" s="32" t="s">
+      <c r="B49" t="s">
         <v>86</v>
       </c>
-      <c r="C49" s="34" t="s">
+      <c r="C49" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D49" s="32" t="s">
+      <c r="D49" t="s">
         <v>90</v>
       </c>
       <c r="E49" s="13">
@@ -5735,16 +5925,16 @@
       <c r="H49" s="13"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
+      <c r="A50" t="s">
         <v>37</v>
       </c>
-      <c r="B50" s="32" t="s">
+      <c r="B50" t="s">
         <v>86</v>
       </c>
-      <c r="C50" s="34" t="s">
+      <c r="C50" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D50" s="32" t="s">
+      <c r="D50" t="s">
         <v>91</v>
       </c>
       <c r="E50" s="13">
@@ -5759,16 +5949,16 @@
       <c r="H50" s="13"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="32" t="s">
+      <c r="A51" t="s">
         <v>37</v>
       </c>
-      <c r="B51" s="32" t="s">
+      <c r="B51" t="s">
         <v>86</v>
       </c>
-      <c r="C51" s="34" t="s">
+      <c r="C51" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="32" t="s">
+      <c r="D51" t="s">
         <v>91</v>
       </c>
       <c r="E51" s="13">
@@ -5783,16 +5973,16 @@
       <c r="H51" s="13"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="32" t="s">
+      <c r="A52" t="s">
         <v>37</v>
       </c>
-      <c r="B52" s="32" t="s">
+      <c r="B52" t="s">
         <v>92</v>
       </c>
-      <c r="C52" s="34" t="s">
+      <c r="C52" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="32" t="s">
+      <c r="D52" t="s">
         <v>93</v>
       </c>
       <c r="E52" s="13">
@@ -5807,16 +5997,16 @@
       <c r="H52" s="13"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="32" t="s">
+      <c r="A53" t="s">
         <v>37</v>
       </c>
-      <c r="B53" s="32" t="s">
+      <c r="B53" t="s">
         <v>92</v>
       </c>
-      <c r="C53" s="34" t="s">
+      <c r="C53" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D53" s="32" t="s">
+      <c r="D53" t="s">
         <v>93</v>
       </c>
       <c r="E53" s="13">
@@ -5831,16 +6021,16 @@
       <c r="H53" s="13"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
+      <c r="A54" t="s">
         <v>37</v>
       </c>
-      <c r="B54" s="32" t="s">
+      <c r="B54" t="s">
         <v>92</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D54" s="32" t="s">
+      <c r="D54" t="s">
         <v>94</v>
       </c>
       <c r="E54" s="13">
@@ -5855,16 +6045,16 @@
       <c r="H54" s="13"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="32" t="s">
+      <c r="A55" t="s">
         <v>37</v>
       </c>
-      <c r="B55" s="32" t="s">
+      <c r="B55" t="s">
         <v>92</v>
       </c>
-      <c r="C55" s="34" t="s">
+      <c r="C55" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D55" s="32" t="s">
+      <c r="D55" t="s">
         <v>94</v>
       </c>
       <c r="E55" s="13">
@@ -5879,16 +6069,16 @@
       <c r="H55" s="13"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="32" t="s">
+      <c r="A56" t="s">
         <v>37</v>
       </c>
-      <c r="B56" s="32" t="s">
+      <c r="B56" t="s">
         <v>92</v>
       </c>
-      <c r="C56" s="34" t="s">
+      <c r="C56" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D56" s="32" t="s">
+      <c r="D56" t="s">
         <v>95</v>
       </c>
       <c r="E56" s="13">
@@ -5903,16 +6093,16 @@
       <c r="H56" s="13"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="32" t="s">
+      <c r="A57" t="s">
         <v>37</v>
       </c>
-      <c r="B57" s="32" t="s">
+      <c r="B57" t="s">
         <v>92</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D57" s="32" t="s">
+      <c r="D57" t="s">
         <v>95</v>
       </c>
       <c r="E57" s="13">
@@ -5927,16 +6117,16 @@
       <c r="H57" s="13"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="32" t="s">
+      <c r="A58" t="s">
         <v>37</v>
       </c>
-      <c r="B58" s="32" t="s">
+      <c r="B58" t="s">
         <v>96</v>
       </c>
-      <c r="C58" s="34" t="s">
+      <c r="C58" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D58" s="32" t="s">
+      <c r="D58" t="s">
         <v>97</v>
       </c>
       <c r="E58" s="13">
@@ -5951,16 +6141,16 @@
       <c r="H58" s="13"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="32" t="s">
+      <c r="A59" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="32" t="s">
+      <c r="B59" t="s">
         <v>96</v>
       </c>
-      <c r="C59" s="34" t="s">
+      <c r="C59" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D59" s="32" t="s">
+      <c r="D59" t="s">
         <v>97</v>
       </c>
       <c r="E59" s="13">
@@ -5975,16 +6165,16 @@
       <c r="H59" s="13"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
+      <c r="A60" t="s">
         <v>37</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" t="s">
         <v>96</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D60" s="32" t="s">
+      <c r="D60" t="s">
         <v>98</v>
       </c>
       <c r="E60" s="13">
@@ -5999,16 +6189,16 @@
       <c r="H60" s="13"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
+      <c r="A61" t="s">
         <v>37</v>
       </c>
-      <c r="B61" s="32" t="s">
+      <c r="B61" t="s">
         <v>96</v>
       </c>
-      <c r="C61" s="34" t="s">
+      <c r="C61" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="32" t="s">
+      <c r="D61" t="s">
         <v>98</v>
       </c>
       <c r="E61" s="13">
@@ -6023,16 +6213,16 @@
       <c r="H61" s="13"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="32" t="s">
+      <c r="A62" t="s">
         <v>37</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B62" t="s">
         <v>96</v>
       </c>
-      <c r="C62" s="34" t="s">
+      <c r="C62" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D62" s="32" t="s">
+      <c r="D62" t="s">
         <v>99</v>
       </c>
       <c r="E62" s="13">
@@ -6047,16 +6237,16 @@
       <c r="H62" s="13"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="32" t="s">
+      <c r="A63" t="s">
         <v>37</v>
       </c>
-      <c r="B63" s="32" t="s">
+      <c r="B63" t="s">
         <v>96</v>
       </c>
-      <c r="C63" s="34" t="s">
+      <c r="C63" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D63" s="32" t="s">
+      <c r="D63" t="s">
         <v>99</v>
       </c>
       <c r="E63" s="13">
@@ -6071,16 +6261,16 @@
       <c r="H63" s="13"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="32" t="s">
+      <c r="A64" t="s">
         <v>37</v>
       </c>
-      <c r="B64" s="32" t="s">
+      <c r="B64" t="s">
         <v>96</v>
       </c>
-      <c r="C64" s="34" t="s">
+      <c r="C64" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D64" s="32" t="s">
+      <c r="D64" t="s">
         <v>100</v>
       </c>
       <c r="E64" s="13">
@@ -6095,16 +6285,16 @@
       <c r="H64" s="13"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="32" t="s">
+      <c r="A65" t="s">
         <v>37</v>
       </c>
-      <c r="B65" s="32" t="s">
+      <c r="B65" t="s">
         <v>96</v>
       </c>
-      <c r="C65" s="34" t="s">
+      <c r="C65" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D65" s="32" t="s">
+      <c r="D65" t="s">
         <v>100</v>
       </c>
       <c r="E65" s="13">
@@ -6119,16 +6309,16 @@
       <c r="H65" s="13"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="32" t="s">
+      <c r="A66" t="s">
         <v>37</v>
       </c>
-      <c r="B66" s="32" t="s">
+      <c r="B66" t="s">
         <v>96</v>
       </c>
-      <c r="C66" s="34" t="s">
+      <c r="C66" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D66" s="32" t="s">
+      <c r="D66" t="s">
         <v>101</v>
       </c>
       <c r="E66" s="13">
@@ -6143,16 +6333,16 @@
       <c r="H66" s="13"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="32" t="s">
+      <c r="A67" t="s">
         <v>37</v>
       </c>
-      <c r="B67" s="32" t="s">
+      <c r="B67" t="s">
         <v>96</v>
       </c>
-      <c r="C67" s="34" t="s">
+      <c r="C67" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D67" s="32" t="s">
+      <c r="D67" t="s">
         <v>101</v>
       </c>
       <c r="E67" s="13">
@@ -6177,11 +6367,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:O106"/>
   <sheetViews>
     <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6219,11 +6409,11 @@
       <c r="G1" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="34" t="s">
         <v>104</v>
       </c>
       <c r="N1" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -6271,14 +6461,14 @@
       <c r="G3" s="23">
         <v>6333.9614285714288</v>
       </c>
-      <c r="M3" s="36" t="s">
-        <v>214</v>
+      <c r="M3" s="34" t="s">
+        <v>208</v>
       </c>
       <c r="N3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="O3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -6303,13 +6493,13 @@
       <c r="G4" s="23">
         <v>5543.9814285714292</v>
       </c>
-      <c r="M4" s="37" t="s">
+      <c r="M4" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="N4" s="38">
+      <c r="N4">
         <v>82270.977142857155</v>
       </c>
-      <c r="O4" s="38">
+      <c r="O4">
         <v>73313.525714285715</v>
       </c>
     </row>
@@ -6335,13 +6525,13 @@
       <c r="G5" s="23">
         <v>7066.1057142857144</v>
       </c>
-      <c r="M5" s="37" t="s">
+      <c r="M5" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="N5" s="38">
+      <c r="N5">
         <v>111291.14285714284</v>
       </c>
-      <c r="O5" s="38">
+      <c r="O5">
         <v>107119.08285714286</v>
       </c>
     </row>
@@ -6355,7 +6545,7 @@
       <c r="C6" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="22" t="s">
         <v>88</v>
       </c>
       <c r="E6" s="22" t="s">
@@ -6367,13 +6557,13 @@
       <c r="G6" s="23">
         <v>6122.744285714286</v>
       </c>
-      <c r="M6" s="37" t="s">
+      <c r="M6" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="N6" s="38">
+      <c r="N6">
         <v>193562.12</v>
       </c>
-      <c r="O6" s="38">
+      <c r="O6">
         <v>180432.60857142857</v>
       </c>
     </row>
@@ -6387,7 +6577,7 @@
       <c r="C7" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="22" t="s">
         <v>99</v>
       </c>
       <c r="E7" s="22" t="s">
@@ -6410,7 +6600,7 @@
       <c r="C8" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="22" t="s">
         <v>66</v>
       </c>
       <c r="E8" s="22" t="s">
@@ -6617,7 +6807,7 @@
       <c r="C17" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="22" t="s">
         <v>88</v>
       </c>
       <c r="E17" s="22" t="s">
@@ -6640,7 +6830,7 @@
       <c r="C18" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="22" t="s">
         <v>99</v>
       </c>
       <c r="E18" s="22" t="s">
@@ -6663,7 +6853,7 @@
       <c r="C19" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="22" t="s">
         <v>66</v>
       </c>
       <c r="E19" s="22" t="s">
@@ -6870,7 +7060,7 @@
       <c r="C28" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="22" t="s">
         <v>88</v>
       </c>
       <c r="E28" s="22" t="s">
@@ -6893,7 +7083,7 @@
       <c r="C29" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="22" t="s">
         <v>99</v>
       </c>
       <c r="E29" s="22" t="s">
@@ -6916,7 +7106,7 @@
       <c r="C30" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="22" t="s">
         <v>66</v>
       </c>
       <c r="E30" s="22" t="s">
@@ -7123,7 +7313,7 @@
       <c r="C39" s="20" t="s">
         <v>121</v>
       </c>
-      <c r="D39" s="24" t="s">
+      <c r="D39" s="22" t="s">
         <v>88</v>
       </c>
       <c r="E39" s="22" t="s">
@@ -7146,7 +7336,7 @@
       <c r="C40" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D40" s="22" t="s">
         <v>99</v>
       </c>
       <c r="E40" s="22" t="s">
@@ -7169,7 +7359,7 @@
       <c r="C41" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D41" s="24" t="s">
+      <c r="D41" s="22" t="s">
         <v>66</v>
       </c>
       <c r="E41" s="22" t="s">
@@ -7376,7 +7566,7 @@
       <c r="C50" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="D50" s="24" t="s">
+      <c r="D50" s="22" t="s">
         <v>88</v>
       </c>
       <c r="E50" s="22" t="s">
@@ -7399,7 +7589,7 @@
       <c r="C51" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D51" s="24" t="s">
+      <c r="D51" s="22" t="s">
         <v>99</v>
       </c>
       <c r="E51" s="22" t="s">
@@ -7422,7 +7612,7 @@
       <c r="C52" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D52" s="24" t="s">
+      <c r="D52" s="22" t="s">
         <v>66</v>
       </c>
       <c r="E52" s="22" t="s">
@@ -7629,7 +7819,7 @@
       <c r="C61" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="D61" s="24" t="s">
+      <c r="D61" s="22" t="s">
         <v>88</v>
       </c>
       <c r="E61" s="22" t="s">
@@ -7652,7 +7842,7 @@
       <c r="C62" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="22" t="s">
         <v>99</v>
       </c>
       <c r="E62" s="22" t="s">
@@ -7675,7 +7865,7 @@
       <c r="C63" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D63" s="24" t="s">
+      <c r="D63" s="22" t="s">
         <v>66</v>
       </c>
       <c r="E63" s="22" t="s">
@@ -7882,7 +8072,7 @@
       <c r="C72" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="D72" s="24" t="s">
+      <c r="D72" s="22" t="s">
         <v>88</v>
       </c>
       <c r="E72" s="22" t="s">
@@ -7905,7 +8095,7 @@
       <c r="C73" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D73" s="24" t="s">
+      <c r="D73" s="22" t="s">
         <v>99</v>
       </c>
       <c r="E73" s="22" t="s">
@@ -7928,7 +8118,7 @@
       <c r="C74" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="D74" s="24" t="s">
+      <c r="D74" s="22" t="s">
         <v>66</v>
       </c>
       <c r="E74" s="22" t="s">
@@ -8135,7 +8325,7 @@
       <c r="C83" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="D83" s="24" t="s">
+      <c r="D83" s="22" t="s">
         <v>88</v>
       </c>
       <c r="E83" s="22" t="s">
@@ -8158,7 +8348,7 @@
       <c r="C84" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="D84" s="24" t="s">
+      <c r="D84" s="22" t="s">
         <v>99</v>
       </c>
       <c r="E84" s="22" t="s">
@@ -8181,7 +8371,7 @@
       <c r="C85" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D85" s="24" t="s">
+      <c r="D85" s="22" t="s">
         <v>66</v>
       </c>
       <c r="E85" s="22" t="s">
@@ -8388,7 +8578,7 @@
       <c r="C94" s="20" t="s">
         <v>205</v>
       </c>
-      <c r="D94" s="24" t="s">
+      <c r="D94" s="22" t="s">
         <v>88</v>
       </c>
       <c r="E94" s="22" t="s">
@@ -8411,7 +8601,7 @@
       <c r="C95" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D95" s="24" t="s">
+      <c r="D95" s="22" t="s">
         <v>99</v>
       </c>
       <c r="E95" s="22" t="s">
@@ -8434,7 +8624,7 @@
       <c r="C96" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="D96" s="24" t="s">
+      <c r="D96" s="22" t="s">
         <v>66</v>
       </c>
       <c r="E96" s="22" t="s">
@@ -8641,7 +8831,7 @@
       <c r="C105" s="20" t="s">
         <v>207</v>
       </c>
-      <c r="D105" s="24" t="s">
+      <c r="D105" s="22" t="s">
         <v>88</v>
       </c>
       <c r="E105" s="22" t="s">
@@ -8658,22 +8848,22 @@
       <c r="A106" s="21">
         <v>41572</v>
       </c>
-      <c r="B106" s="24" t="s">
+      <c r="B106" s="22" t="s">
         <v>127</v>
       </c>
-      <c r="C106" s="24" t="s">
+      <c r="C106" s="22" t="s">
         <v>205</v>
       </c>
-      <c r="D106" s="24" t="s">
+      <c r="D106" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="E106" s="24" t="s">
+      <c r="E106" s="22" t="s">
         <v>110</v>
       </c>
-      <c r="F106" s="25">
+      <c r="F106" s="24">
         <v>10000</v>
       </c>
-      <c r="G106" s="25">
+      <c r="G106" s="24">
         <v>20000</v>
       </c>
     </row>
@@ -8686,10 +8876,12 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8698,634 +8890,634 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
-        <v>214</v>
+      <c r="A1" s="34" t="s">
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="38">
+      <c r="B4">
         <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="31" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="38">
+      <c r="B5">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B6" s="38">
+      <c r="B6">
         <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="31" t="s">
         <v>128</v>
       </c>
-      <c r="B7" s="38">
+      <c r="B7">
         <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="B8" s="38">
+      <c r="B8">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="38">
+      <c r="B9">
         <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="B10" s="38">
+      <c r="B10">
         <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="31" t="s">
         <v>132</v>
       </c>
-      <c r="B11" s="38">
+      <c r="B11">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="31" t="s">
         <v>175</v>
       </c>
-      <c r="B12" s="38">
+      <c r="B12">
         <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B13" s="38">
+      <c r="B13">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="B14" s="38">
+      <c r="B14">
         <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="B15" s="38">
+      <c r="B15">
         <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="31" t="s">
         <v>198</v>
       </c>
-      <c r="B16" s="38">
+      <c r="B16">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="B17" s="38">
+      <c r="B17">
         <v>112</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B18" s="38">
+      <c r="B18">
         <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="B19" s="38">
+      <c r="B19">
         <v>21</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="37" t="s">
+      <c r="A20" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B20" s="38">
+      <c r="B20">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="37" t="s">
+      <c r="A21" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="38">
+      <c r="B21">
         <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="B22" s="38">
+      <c r="B22">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="37" t="s">
+      <c r="A23" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B23" s="38">
+      <c r="B23">
         <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="37" t="s">
+      <c r="A24" s="31" t="s">
         <v>196</v>
       </c>
-      <c r="B24" s="38">
+      <c r="B24">
         <v>26</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="37" t="s">
+      <c r="A25" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="B25" s="38">
+      <c r="B25">
         <v>27</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="38">
+      <c r="B26">
         <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="37" t="s">
+      <c r="A27" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B27" s="38">
+      <c r="B27">
         <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="38">
+      <c r="B28">
         <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="B29" s="38">
+      <c r="B29">
         <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="B30" s="38">
+      <c r="B30">
         <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="B31" s="38">
+      <c r="B31">
         <v>85</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="B32" s="38">
+      <c r="B32">
         <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="37" t="s">
+      <c r="A33" s="31" t="s">
         <v>203</v>
       </c>
-      <c r="B33" s="38">
+      <c r="B33">
         <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="B34" s="38">
+      <c r="B34">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="31" t="s">
         <v>201</v>
       </c>
-      <c r="B35" s="38">
+      <c r="B35">
         <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
+      <c r="A36" s="31" t="s">
         <v>192</v>
       </c>
-      <c r="B36" s="38">
+      <c r="B36">
         <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="37" t="s">
+      <c r="A37" s="31" t="s">
         <v>193</v>
       </c>
-      <c r="B37" s="38">
+      <c r="B37">
         <v>4</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="37" t="s">
+      <c r="A38" s="31" t="s">
         <v>178</v>
       </c>
-      <c r="B38" s="38">
+      <c r="B38">
         <v>20</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="B39" s="38">
+      <c r="B39">
         <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="31" t="s">
         <v>176</v>
       </c>
-      <c r="B40" s="38">
+      <c r="B40">
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="37" t="s">
+      <c r="A41" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="B41" s="38">
+      <c r="B41">
         <v>29</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="37" t="s">
+      <c r="A42" s="31" t="s">
         <v>199</v>
       </c>
-      <c r="B42" s="38">
+      <c r="B42">
         <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="37" t="s">
+      <c r="A43" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B43" s="38">
+      <c r="B43">
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="37" t="s">
+      <c r="A44" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B44" s="38">
+      <c r="B44">
         <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="B45" s="38">
+      <c r="B45">
         <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="31" t="s">
         <v>204</v>
       </c>
-      <c r="B46" s="38">
+      <c r="B46">
         <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="31" t="s">
         <v>197</v>
       </c>
-      <c r="B47" s="38">
+      <c r="B47">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="37" t="s">
+      <c r="A48" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="B48" s="38">
+      <c r="B48">
         <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B49" s="38">
+      <c r="B49">
         <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="37" t="s">
+      <c r="A50" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="B50" s="38">
+      <c r="B50">
         <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="37" t="s">
+      <c r="A51" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="B51" s="38">
+      <c r="B51">
         <v>22</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="s">
+      <c r="A52" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="B52" s="38">
+      <c r="B52">
         <v>86</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
+      <c r="A53" s="31" t="s">
         <v>186</v>
       </c>
-      <c r="B53" s="38">
+      <c r="B53">
         <v>79</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="B54" s="38">
+      <c r="B54">
         <v>36</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="37" t="s">
+      <c r="A55" s="31" t="s">
         <v>202</v>
       </c>
-      <c r="B55" s="38">
+      <c r="B55">
         <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="31" t="s">
         <v>200</v>
       </c>
-      <c r="B56" s="38">
+      <c r="B56">
         <v>101</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="37" t="s">
+      <c r="A57" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="B57" s="38">
+      <c r="B57">
         <v>5</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="37" t="s">
+      <c r="A58" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B58" s="38">
+      <c r="B58">
         <v>26</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="37" t="s">
+      <c r="A59" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="B59" s="38">
+      <c r="B59">
         <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="B60" s="38">
+      <c r="B60">
         <v>49</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="37" t="s">
+      <c r="A61" s="31" t="s">
         <v>195</v>
       </c>
-      <c r="B61" s="38">
+      <c r="B61">
         <v>6</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="37" t="s">
+      <c r="A62" s="31" t="s">
         <v>169</v>
       </c>
-      <c r="B62" s="38">
+      <c r="B62">
         <v>26</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="37" t="s">
+      <c r="A63" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B63" s="38">
+      <c r="B63">
         <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="37" t="s">
+      <c r="A64" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B64" s="38">
+      <c r="B64">
         <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="37" t="s">
+      <c r="A65" s="31" t="s">
         <v>188</v>
       </c>
-      <c r="B65" s="38">
+      <c r="B65">
         <v>113</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="37" t="s">
+      <c r="A66" s="31" t="s">
         <v>173</v>
       </c>
-      <c r="B66" s="38">
+      <c r="B66">
         <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="B67" s="38">
+      <c r="B67">
         <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="37" t="s">
+      <c r="A68" s="31" t="s">
         <v>189</v>
       </c>
-      <c r="B68" s="38">
+      <c r="B68">
         <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="37" t="s">
+      <c r="A69" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B69" s="38">
+      <c r="B69">
         <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="37" t="s">
+      <c r="A70" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B70" s="38">
+      <c r="B70">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="37" t="s">
+      <c r="A71" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="B71" s="38">
+      <c r="B71">
         <v>35</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="37" t="s">
+      <c r="A72" s="31" t="s">
         <v>181</v>
       </c>
-      <c r="B72" s="38">
+      <c r="B72">
         <v>21</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="37" t="s">
+      <c r="A73" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="B73" s="38">
+      <c r="B73">
         <v>61</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="37" t="s">
+      <c r="A74" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="B74" s="38">
+      <c r="B74">
         <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="37" t="s">
+      <c r="A75" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="B75" s="38">
+      <c r="B75">
         <v>65</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="37" t="s">
+      <c r="A76" s="31" t="s">
         <v>190</v>
       </c>
-      <c r="B76" s="38">
+      <c r="B76">
         <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="37" t="s">
+      <c r="A77" s="31" t="s">
         <v>191</v>
       </c>
-      <c r="B77" s="38">
+      <c r="B77">
         <v>22</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="37" t="s">
+      <c r="A78" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="B78" s="38">
+      <c r="B78">
         <v>36</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="37" t="s">
+      <c r="A79" s="31" t="s">
         <v>206</v>
       </c>
-      <c r="B79" s="38">
+      <c r="B79">
         <v>3119</v>
       </c>
     </row>
